--- a/data/trans_orig/Predimed_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Predimed_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14651A0C-C832-4895-B3A5-DADDD50F191A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06121EAE-B793-420A-ADB5-E7A8F000D96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AB52F4BF-E304-4D09-8479-CAFDA81C4755}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D054824F-B7DE-4B19-8000-D1AD3E804232}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población según adherencia a la dieta mediterránea en 2023 (Tasa respuesta: 94,27%)</t>
   </si>
@@ -65,352 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Alta</t>
   </si>
   <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
   </si>
   <si>
     <t>Baja</t>
   </si>
   <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
   </si>
   <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
   </si>
   <si>
     <t>83,99%</t>
   </si>
   <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED6C74C-EE72-463C-9786-AF9E89D01E66}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B15BB03-89B6-4FBA-BD1B-DD76351D3758}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -943,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="D4" s="7">
-        <v>24195</v>
+        <v>120886</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>62</v>
+        <v>259</v>
       </c>
       <c r="I4" s="7">
-        <v>32052</v>
+        <v>139475</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>93</v>
+        <v>409</v>
       </c>
       <c r="N4" s="7">
-        <v>56247</v>
+        <v>260361</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>72</v>
+        <v>530</v>
       </c>
       <c r="D5" s="7">
-        <v>62700</v>
+        <v>455829</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>147</v>
+        <v>891</v>
       </c>
       <c r="I5" s="7">
-        <v>79064</v>
+        <v>487420</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>219</v>
+        <v>1421</v>
       </c>
       <c r="N5" s="7">
-        <v>141764</v>
+        <v>943250</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>103</v>
+        <v>680</v>
       </c>
       <c r="D6" s="7">
-        <v>86895</v>
+        <v>576715</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>209</v>
+        <v>1150</v>
       </c>
       <c r="I6" s="7">
-        <v>111116</v>
+        <v>626895</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>312</v>
+        <v>1830</v>
       </c>
       <c r="N6" s="7">
-        <v>198011</v>
+        <v>1203611</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="D7" s="7">
-        <v>99405</v>
+        <v>131485</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="I7" s="7">
-        <v>115808</v>
+        <v>149876</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>316</v>
+        <v>382</v>
       </c>
       <c r="N7" s="7">
-        <v>215213</v>
+        <v>281361</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>458</v>
+        <v>765</v>
       </c>
       <c r="D8" s="7">
-        <v>408307</v>
+        <v>987271</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>744</v>
+        <v>1173</v>
       </c>
       <c r="I8" s="7">
-        <v>444577</v>
+        <v>737432</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1202</v>
+        <v>1938</v>
       </c>
       <c r="N8" s="7">
-        <v>852885</v>
+        <v>1724702</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>577</v>
+        <v>905</v>
       </c>
       <c r="D9" s="7">
-        <v>507712</v>
+        <v>1118756</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>941</v>
+        <v>1415</v>
       </c>
       <c r="I9" s="7">
-        <v>560385</v>
+        <v>887308</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1518</v>
+        <v>2320</v>
       </c>
       <c r="N9" s="7">
-        <v>1068098</v>
+        <v>2006063</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="D10" s="7">
-        <v>136904</v>
+        <v>111267</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="I10" s="7">
-        <v>164120</v>
+        <v>145998</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1283,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>382</v>
+        <v>299</v>
       </c>
       <c r="N10" s="7">
-        <v>301024</v>
+        <v>257265</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1304,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>765</v>
+        <v>508</v>
       </c>
       <c r="D11" s="7">
-        <v>826894</v>
+        <v>531305</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1319,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>1173</v>
+        <v>803</v>
       </c>
       <c r="I11" s="7">
-        <v>818752</v>
+        <v>739874</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1334,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1938</v>
+        <v>1311</v>
       </c>
       <c r="N11" s="7">
-        <v>1645646</v>
+        <v>1271179</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1355,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>905</v>
+        <v>624</v>
       </c>
       <c r="D12" s="7">
-        <v>963798</v>
+        <v>642572</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1415</v>
+        <v>986</v>
       </c>
       <c r="I12" s="7">
-        <v>982872</v>
+        <v>885872</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2320</v>
+        <v>1610</v>
       </c>
       <c r="N12" s="7">
-        <v>1946670</v>
+        <v>1528444</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1408,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="D13" s="7">
-        <v>113582</v>
+        <v>152880</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1423,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>183</v>
+        <v>303</v>
       </c>
       <c r="I13" s="7">
-        <v>131671</v>
+        <v>199969</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1438,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>299</v>
+        <v>469</v>
       </c>
       <c r="N13" s="7">
-        <v>245253</v>
+        <v>352849</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1459,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>508</v>
+        <v>802</v>
       </c>
       <c r="D14" s="7">
-        <v>551388</v>
+        <v>735439</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1474,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>803</v>
+        <v>1211</v>
       </c>
       <c r="I14" s="7">
-        <v>690638</v>
+        <v>861682</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1489,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1311</v>
+        <v>2013</v>
       </c>
       <c r="N14" s="7">
-        <v>1242026</v>
+        <v>1597121</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1510,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>624</v>
+        <v>968</v>
       </c>
       <c r="D15" s="7">
-        <v>664970</v>
+        <v>888319</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>986</v>
+        <v>1514</v>
       </c>
       <c r="I15" s="7">
-        <v>822309</v>
+        <v>1061651</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1610</v>
+        <v>2482</v>
       </c>
       <c r="N15" s="7">
-        <v>1487279</v>
+        <v>1949970</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1557,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>166</v>
+        <v>572</v>
       </c>
       <c r="D16" s="7">
-        <v>159996</v>
+        <v>516519</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>987</v>
+      </c>
+      <c r="I16" s="7">
+        <v>635318</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>303</v>
-      </c>
-      <c r="I16" s="7">
-        <v>222246</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1559</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1151836</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>469</v>
-      </c>
-      <c r="N16" s="7">
-        <v>382242</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>802</v>
+        <v>2605</v>
       </c>
       <c r="D17" s="7">
-        <v>766554</v>
+        <v>2709843</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>4078</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2826408</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>1211</v>
-      </c>
-      <c r="I17" s="7">
-        <v>891588</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6683</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5536252</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>2013</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1658141</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>968</v>
+        <v>3177</v>
       </c>
       <c r="D18" s="7">
-        <v>926550</v>
+        <v>3226362</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1514</v>
+        <v>5065</v>
       </c>
       <c r="I18" s="7">
-        <v>1113834</v>
+        <v>3461726</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2482</v>
+        <v>8242</v>
       </c>
       <c r="N18" s="7">
-        <v>2040383</v>
+        <v>6688088</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1711,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>572</v>
-      </c>
-      <c r="D19" s="7">
-        <v>534081</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>987</v>
-      </c>
-      <c r="I19" s="7">
-        <v>665897</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1559</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1199978</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2605</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2615845</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4078</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2924619</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6683</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5540464</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3177</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3149926</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5065</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3590516</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8242</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6740442</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
